--- a/result/supertrend_NIKKEI.xlsx
+++ b/result/supertrend_NIKKEI.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="18">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -425,7 +425,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P5"/>
+  <dimension ref="A1:P15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -483,7 +483,7 @@
     </row>
     <row r="2" spans="1:16">
       <c r="A2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>
@@ -498,37 +498,37 @@
         <v>2023</v>
       </c>
       <c r="F2">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="G2">
-        <v>0.9000000000000001</v>
+        <v>2</v>
       </c>
       <c r="H2">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="I2">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="J2">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="K2">
-        <v>64324</v>
+        <v>90692</v>
       </c>
       <c r="L2">
-        <v>13239</v>
+        <v>11286</v>
       </c>
       <c r="M2">
-        <v>-994</v>
+        <v>-823</v>
       </c>
       <c r="N2">
-        <v>63330</v>
+        <v>89869</v>
       </c>
       <c r="O2">
-        <v>0.2992673162625576</v>
+        <v>0.3328017012227539</v>
       </c>
       <c r="P2">
-        <v>267.9160673491835</v>
+        <v>380.188679245283</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -548,42 +548,42 @@
         <v>2023</v>
       </c>
       <c r="F3">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G3">
-        <v>3.3</v>
+        <v>0.9000000000000001</v>
       </c>
       <c r="H3">
-        <v>200</v>
+        <v>450</v>
       </c>
       <c r="I3">
+        <v>450</v>
+      </c>
+      <c r="J3">
         <v>250</v>
       </c>
-      <c r="J3">
-        <v>100</v>
-      </c>
       <c r="K3">
-        <v>8615</v>
+        <v>64324</v>
       </c>
       <c r="L3">
-        <v>7659</v>
+        <v>13239</v>
       </c>
       <c r="M3">
-        <v>-756</v>
+        <v>-994</v>
       </c>
       <c r="N3">
-        <v>7859</v>
+        <v>63330</v>
       </c>
       <c r="O3">
-        <v>0.3581407494450973</v>
+        <v>0.2992673162625576</v>
       </c>
       <c r="P3">
-        <v>33.24731364751671</v>
+        <v>267.9160673491835</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
         <v>16</v>
@@ -598,86 +598,586 @@
         <v>2023</v>
       </c>
       <c r="F4">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G4">
-        <v>1.2</v>
+        <v>2.3</v>
       </c>
       <c r="H4">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="I4">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="J4">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K4">
-        <v>-38187</v>
+        <v>42039</v>
       </c>
       <c r="L4">
-        <v>25442</v>
+        <v>11730</v>
       </c>
       <c r="M4">
-        <v>-703</v>
+        <v>-756</v>
       </c>
       <c r="N4">
-        <v>-38890</v>
+        <v>41283</v>
       </c>
       <c r="O4">
-        <v>0.3160128920682336</v>
+        <v>0.3343563512361467</v>
       </c>
       <c r="P4">
-        <v>-164.5232253151705</v>
+        <v>174.6467552246383</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5">
+        <v>2020</v>
+      </c>
+      <c r="E5">
+        <v>2023</v>
+      </c>
+      <c r="F5">
+        <v>30</v>
+      </c>
+      <c r="G5">
+        <v>3.4</v>
+      </c>
+      <c r="H5">
+        <v>400</v>
+      </c>
+      <c r="I5">
+        <v>400</v>
+      </c>
+      <c r="J5">
+        <v>150</v>
+      </c>
+      <c r="K5">
+        <v>19830</v>
+      </c>
+      <c r="L5">
+        <v>7209</v>
+      </c>
+      <c r="M5">
+        <v>-800</v>
+      </c>
+      <c r="N5">
+        <v>19030</v>
+      </c>
+      <c r="O5">
+        <v>0.3492856152032182</v>
+      </c>
+      <c r="P5">
+        <v>80.50596497165581</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6">
+        <v>2020</v>
+      </c>
+      <c r="E6">
+        <v>2023</v>
+      </c>
+      <c r="F6">
+        <v>80</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+      <c r="H6">
+        <v>150</v>
+      </c>
+      <c r="I6">
+        <v>150</v>
+      </c>
+      <c r="J6">
+        <v>50</v>
+      </c>
+      <c r="K6">
+        <v>11664</v>
+      </c>
+      <c r="L6">
+        <v>8774</v>
+      </c>
+      <c r="M6">
+        <v>-800</v>
+      </c>
+      <c r="N6">
+        <v>10864</v>
+      </c>
+      <c r="O6">
+        <v>0.3880784134944153</v>
+      </c>
+      <c r="P6">
+        <v>45.95989508418648</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7">
         <v>0</v>
       </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5">
-        <v>2020</v>
-      </c>
-      <c r="E5">
-        <v>2023</v>
-      </c>
-      <c r="F5">
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7">
+        <v>2020</v>
+      </c>
+      <c r="E7">
+        <v>2023</v>
+      </c>
+      <c r="F7">
+        <v>20</v>
+      </c>
+      <c r="G7">
+        <v>3.3</v>
+      </c>
+      <c r="H7">
+        <v>200</v>
+      </c>
+      <c r="I7">
+        <v>250</v>
+      </c>
+      <c r="J7">
+        <v>100</v>
+      </c>
+      <c r="K7">
+        <v>8615</v>
+      </c>
+      <c r="L7">
+        <v>7659</v>
+      </c>
+      <c r="M7">
+        <v>-756</v>
+      </c>
+      <c r="N7">
+        <v>7859</v>
+      </c>
+      <c r="O7">
+        <v>0.3581407494450973</v>
+      </c>
+      <c r="P7">
+        <v>33.24731364751671</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8">
+        <v>2020</v>
+      </c>
+      <c r="E8">
+        <v>2023</v>
+      </c>
+      <c r="F8">
+        <v>60</v>
+      </c>
+      <c r="G8">
+        <v>0.7</v>
+      </c>
+      <c r="H8">
+        <v>400</v>
+      </c>
+      <c r="I8">
+        <v>400</v>
+      </c>
+      <c r="J8">
+        <v>50</v>
+      </c>
+      <c r="K8">
+        <v>6078</v>
+      </c>
+      <c r="L8">
+        <v>46006</v>
+      </c>
+      <c r="M8">
+        <v>-870</v>
+      </c>
+      <c r="N8">
+        <v>5208</v>
+      </c>
+      <c r="O8">
+        <v>0.3162848324131635</v>
+      </c>
+      <c r="P8">
+        <v>22.03232083932651</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9">
+        <v>2020</v>
+      </c>
+      <c r="E9">
+        <v>2023</v>
+      </c>
+      <c r="F9">
+        <v>90</v>
+      </c>
+      <c r="G9">
+        <v>1.5</v>
+      </c>
+      <c r="H9">
+        <v>150</v>
+      </c>
+      <c r="I9">
+        <v>300</v>
+      </c>
+      <c r="J9">
+        <v>50</v>
+      </c>
+      <c r="K9">
+        <v>2840</v>
+      </c>
+      <c r="L9">
+        <v>22060</v>
+      </c>
+      <c r="M9">
+        <v>-658</v>
+      </c>
+      <c r="N9">
+        <v>2182</v>
+      </c>
+      <c r="O9">
+        <v>0.349818676337262</v>
+      </c>
+      <c r="P9">
+        <v>9.230899399272358</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10">
+        <v>2020</v>
+      </c>
+      <c r="E10">
+        <v>2023</v>
+      </c>
+      <c r="F10">
+        <v>10</v>
+      </c>
+      <c r="G10">
+        <v>2.7</v>
+      </c>
+      <c r="H10">
+        <v>300</v>
+      </c>
+      <c r="I10">
+        <v>500</v>
+      </c>
+      <c r="J10">
+        <v>50</v>
+      </c>
+      <c r="K10">
+        <v>2260</v>
+      </c>
+      <c r="L10">
+        <v>10386</v>
+      </c>
+      <c r="M10">
+        <v>-589</v>
+      </c>
+      <c r="N10">
+        <v>1671</v>
+      </c>
+      <c r="O10">
+        <v>0.3754092046986328</v>
+      </c>
+      <c r="P10">
+        <v>7.069125983585751</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11">
+        <v>2020</v>
+      </c>
+      <c r="E11">
+        <v>2023</v>
+      </c>
+      <c r="F11">
+        <v>50</v>
+      </c>
+      <c r="G11">
+        <v>1.1</v>
+      </c>
+      <c r="H11">
+        <v>450</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>-22116</v>
+      </c>
+      <c r="L11">
+        <v>31562</v>
+      </c>
+      <c r="M11">
+        <v>-644</v>
+      </c>
+      <c r="N11">
+        <v>-22760</v>
+      </c>
+      <c r="O11">
+        <v>0.3624928711741968</v>
+      </c>
+      <c r="P11">
+        <v>-96.28564176326255</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12">
+        <v>2020</v>
+      </c>
+      <c r="E12">
+        <v>2023</v>
+      </c>
+      <c r="F12">
+        <v>50</v>
+      </c>
+      <c r="G12">
+        <v>3.5</v>
+      </c>
+      <c r="H12">
+        <v>100</v>
+      </c>
+      <c r="I12">
+        <v>500</v>
+      </c>
+      <c r="J12">
+        <v>250</v>
+      </c>
+      <c r="K12">
+        <v>-23303</v>
+      </c>
+      <c r="L12">
+        <v>6740</v>
+      </c>
+      <c r="M12">
+        <v>-800</v>
+      </c>
+      <c r="N12">
+        <v>-24103</v>
+      </c>
+      <c r="O12">
+        <v>0.2514836795252225</v>
+      </c>
+      <c r="P12">
+        <v>-101.9671715035113</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13">
+        <v>2020</v>
+      </c>
+      <c r="E13">
+        <v>2023</v>
+      </c>
+      <c r="F13">
+        <v>10</v>
+      </c>
+      <c r="G13">
+        <v>1.2</v>
+      </c>
+      <c r="H13">
+        <v>100</v>
+      </c>
+      <c r="I13">
+        <v>500</v>
+      </c>
+      <c r="J13">
+        <v>100</v>
+      </c>
+      <c r="K13">
+        <v>-38187</v>
+      </c>
+      <c r="L13">
+        <v>25442</v>
+      </c>
+      <c r="M13">
+        <v>-703</v>
+      </c>
+      <c r="N13">
+        <v>-38890</v>
+      </c>
+      <c r="O13">
+        <v>0.3160128920682336</v>
+      </c>
+      <c r="P13">
+        <v>-164.5232253151705</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14">
+        <v>2020</v>
+      </c>
+      <c r="E14">
+        <v>2023</v>
+      </c>
+      <c r="F14">
+        <v>40</v>
+      </c>
+      <c r="G14">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="H14">
+        <v>400</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>-45139</v>
+      </c>
+      <c r="L14">
+        <v>53355</v>
+      </c>
+      <c r="M14">
+        <v>-1081</v>
+      </c>
+      <c r="N14">
+        <v>-46220</v>
+      </c>
+      <c r="O14">
+        <v>0.3617842751382251</v>
+      </c>
+      <c r="P14">
+        <v>-195.5326169726711</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15">
+        <v>2020</v>
+      </c>
+      <c r="E15">
+        <v>2023</v>
+      </c>
+      <c r="F15">
         <v>70</v>
       </c>
-      <c r="G5">
+      <c r="G15">
         <v>1</v>
       </c>
-      <c r="H5">
+      <c r="H15">
         <v>50</v>
       </c>
-      <c r="I5">
+      <c r="I15">
         <v>0</v>
       </c>
-      <c r="J5">
+      <c r="J15">
         <v>0</v>
       </c>
-      <c r="K5">
+      <c r="K15">
         <v>-103056</v>
       </c>
-      <c r="L5">
+      <c r="L15">
         <v>34294</v>
       </c>
-      <c r="M5">
+      <c r="M15">
         <v>-656</v>
       </c>
-      <c r="N5">
+      <c r="N15">
         <v>-103712</v>
       </c>
-      <c r="O5">
+      <c r="O15">
         <v>0.354814253222138</v>
       </c>
-      <c r="P5">
+      <c r="P15">
         <v>-438.7511633809967</v>
       </c>
     </row>

--- a/result/supertrend_NIKKEI.xlsx
+++ b/result/supertrend_NIKKEI.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="18">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -425,7 +425,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:P59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -483,7 +483,7 @@
     </row>
     <row r="2" spans="1:16">
       <c r="A2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>
@@ -498,42 +498,42 @@
         <v>2023</v>
       </c>
       <c r="F2">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="G2">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="H2">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="I2">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="J2">
         <v>200</v>
       </c>
       <c r="K2">
-        <v>90692</v>
+        <v>93332</v>
       </c>
       <c r="L2">
-        <v>11286</v>
+        <v>12753</v>
       </c>
       <c r="M2">
-        <v>-823</v>
+        <v>-778</v>
       </c>
       <c r="N2">
-        <v>89869</v>
+        <v>92554</v>
       </c>
       <c r="O2">
-        <v>0.3328017012227539</v>
+        <v>0.3254136281659217</v>
       </c>
       <c r="P2">
-        <v>380.188679245283</v>
+        <v>391.5475082494289</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>16</v>
@@ -548,42 +548,42 @@
         <v>2023</v>
       </c>
       <c r="F3">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="G3">
-        <v>0.9000000000000001</v>
+        <v>2</v>
       </c>
       <c r="H3">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="I3">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="J3">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="K3">
-        <v>64324</v>
+        <v>90692</v>
       </c>
       <c r="L3">
-        <v>13239</v>
+        <v>11286</v>
       </c>
       <c r="M3">
-        <v>-994</v>
+        <v>-823</v>
       </c>
       <c r="N3">
-        <v>63330</v>
+        <v>89869</v>
       </c>
       <c r="O3">
-        <v>0.2992673162625576</v>
+        <v>0.3328017012227539</v>
       </c>
       <c r="P3">
-        <v>267.9160673491835</v>
+        <v>380.188679245283</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
         <v>16</v>
@@ -598,42 +598,42 @@
         <v>2023</v>
       </c>
       <c r="F4">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="G4">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="H4">
         <v>300</v>
       </c>
       <c r="I4">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="J4">
         <v>150</v>
       </c>
       <c r="K4">
-        <v>42039</v>
+        <v>71877</v>
       </c>
       <c r="L4">
-        <v>11730</v>
+        <v>18234</v>
       </c>
       <c r="M4">
-        <v>-756</v>
+        <v>-703</v>
       </c>
       <c r="N4">
-        <v>41283</v>
+        <v>71174</v>
       </c>
       <c r="O4">
-        <v>0.3343563512361467</v>
+        <v>0.3194581550948777</v>
       </c>
       <c r="P4">
-        <v>174.6467552246383</v>
+        <v>301.0999238514257</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
         <v>16</v>
@@ -648,42 +648,42 @@
         <v>2023</v>
       </c>
       <c r="F5">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G5">
-        <v>3.4</v>
+        <v>1.2</v>
       </c>
       <c r="H5">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="I5">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="J5">
         <v>150</v>
       </c>
       <c r="K5">
-        <v>19830</v>
+        <v>67509</v>
       </c>
       <c r="L5">
-        <v>7209</v>
+        <v>19927</v>
       </c>
       <c r="M5">
-        <v>-800</v>
+        <v>-703</v>
       </c>
       <c r="N5">
-        <v>19030</v>
+        <v>66806</v>
       </c>
       <c r="O5">
-        <v>0.3492856152032182</v>
+        <v>0.3144477342299393</v>
       </c>
       <c r="P5">
-        <v>80.50596497165581</v>
+        <v>282.6212031474744</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B6" t="s">
         <v>16</v>
@@ -698,42 +698,42 @@
         <v>2023</v>
       </c>
       <c r="F6">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="G6">
-        <v>3</v>
+        <v>0.9000000000000001</v>
       </c>
       <c r="H6">
-        <v>150</v>
+        <v>450</v>
       </c>
       <c r="I6">
-        <v>150</v>
+        <v>450</v>
       </c>
       <c r="J6">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="K6">
-        <v>11664</v>
+        <v>64324</v>
       </c>
       <c r="L6">
-        <v>8774</v>
+        <v>13239</v>
       </c>
       <c r="M6">
-        <v>-800</v>
+        <v>-994</v>
       </c>
       <c r="N6">
-        <v>10864</v>
+        <v>63330</v>
       </c>
       <c r="O6">
-        <v>0.3880784134944153</v>
+        <v>0.2992673162625576</v>
       </c>
       <c r="P6">
-        <v>45.95989508418648</v>
+        <v>267.9160673491835</v>
       </c>
     </row>
     <row r="7" spans="1:16">
       <c r="A7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>16</v>
@@ -748,42 +748,42 @@
         <v>2023</v>
       </c>
       <c r="F7">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="G7">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="H7">
-        <v>200</v>
+        <v>450</v>
       </c>
       <c r="I7">
+        <v>350</v>
+      </c>
+      <c r="J7">
         <v>250</v>
       </c>
-      <c r="J7">
-        <v>100</v>
-      </c>
       <c r="K7">
-        <v>8615</v>
+        <v>58158</v>
       </c>
       <c r="L7">
-        <v>7659</v>
+        <v>7663</v>
       </c>
       <c r="M7">
-        <v>-756</v>
+        <v>-798</v>
       </c>
       <c r="N7">
-        <v>7859</v>
+        <v>57360</v>
       </c>
       <c r="O7">
-        <v>0.3581407494450973</v>
+        <v>0.3353777893775284</v>
       </c>
       <c r="P7">
-        <v>33.24731364751671</v>
+        <v>242.6601235299095</v>
       </c>
     </row>
     <row r="8" spans="1:16">
       <c r="A8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B8" t="s">
         <v>16</v>
@@ -801,39 +801,39 @@
         <v>60</v>
       </c>
       <c r="G8">
-        <v>0.7</v>
+        <v>1.6</v>
       </c>
       <c r="H8">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="I8">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="J8">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="K8">
-        <v>6078</v>
+        <v>56612</v>
       </c>
       <c r="L8">
-        <v>46006</v>
+        <v>16489</v>
       </c>
       <c r="M8">
-        <v>-870</v>
+        <v>-756</v>
       </c>
       <c r="N8">
-        <v>5208</v>
+        <v>55856</v>
       </c>
       <c r="O8">
-        <v>0.3162848324131635</v>
+        <v>0.3233064467220571</v>
       </c>
       <c r="P8">
-        <v>22.03232083932651</v>
+        <v>236.2974870970471</v>
       </c>
     </row>
     <row r="9" spans="1:16">
       <c r="A9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B9" t="s">
         <v>16</v>
@@ -848,42 +848,42 @@
         <v>2023</v>
       </c>
       <c r="F9">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="G9">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="H9">
+        <v>300</v>
+      </c>
+      <c r="I9">
+        <v>450</v>
+      </c>
+      <c r="J9">
         <v>150</v>
       </c>
-      <c r="I9">
-        <v>300</v>
-      </c>
-      <c r="J9">
-        <v>50</v>
-      </c>
       <c r="K9">
-        <v>2840</v>
+        <v>42039</v>
       </c>
       <c r="L9">
-        <v>22060</v>
+        <v>11730</v>
       </c>
       <c r="M9">
-        <v>-658</v>
+        <v>-756</v>
       </c>
       <c r="N9">
-        <v>2182</v>
+        <v>41283</v>
       </c>
       <c r="O9">
-        <v>0.349818676337262</v>
+        <v>0.3343563512361467</v>
       </c>
       <c r="P9">
-        <v>9.230899399272358</v>
+        <v>174.6467552246383</v>
       </c>
     </row>
     <row r="10" spans="1:16">
       <c r="A10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B10" t="s">
         <v>16</v>
@@ -898,42 +898,42 @@
         <v>2023</v>
       </c>
       <c r="F10">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G10">
-        <v>2.7</v>
+        <v>2.600000000000001</v>
       </c>
       <c r="H10">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="I10">
         <v>500</v>
       </c>
       <c r="J10">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="K10">
-        <v>2260</v>
+        <v>40499</v>
       </c>
       <c r="L10">
-        <v>10386</v>
+        <v>10211</v>
       </c>
       <c r="M10">
-        <v>-589</v>
+        <v>-756</v>
       </c>
       <c r="N10">
-        <v>1671</v>
+        <v>39743</v>
       </c>
       <c r="O10">
-        <v>0.3754092046986328</v>
+        <v>0.3458035451963569</v>
       </c>
       <c r="P10">
-        <v>7.069125983585751</v>
+        <v>168.131821643117</v>
       </c>
     </row>
     <row r="11" spans="1:16">
       <c r="A11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B11" t="s">
         <v>16</v>
@@ -948,42 +948,42 @@
         <v>2023</v>
       </c>
       <c r="F11">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="G11">
-        <v>1.1</v>
+        <v>0.4</v>
       </c>
       <c r="H11">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="K11">
-        <v>-22116</v>
+        <v>40590</v>
       </c>
       <c r="L11">
-        <v>31562</v>
+        <v>30981</v>
       </c>
       <c r="M11">
-        <v>-644</v>
+        <v>-1062</v>
       </c>
       <c r="N11">
-        <v>-22760</v>
+        <v>39528</v>
       </c>
       <c r="O11">
-        <v>0.3624928711741968</v>
+        <v>0.2703592524450469</v>
       </c>
       <c r="P11">
-        <v>-96.28564176326255</v>
+        <v>167.222269227515</v>
       </c>
     </row>
     <row r="12" spans="1:16">
       <c r="A12">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
         <v>16</v>
@@ -1001,39 +1001,39 @@
         <v>50</v>
       </c>
       <c r="G12">
-        <v>3.5</v>
+        <v>0.7</v>
       </c>
       <c r="H12">
-        <v>100</v>
+        <v>450</v>
       </c>
       <c r="I12">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="J12">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="K12">
-        <v>-23303</v>
+        <v>39142</v>
       </c>
       <c r="L12">
-        <v>6740</v>
+        <v>10886</v>
       </c>
       <c r="M12">
-        <v>-800</v>
+        <v>-994</v>
       </c>
       <c r="N12">
-        <v>-24103</v>
+        <v>38148</v>
       </c>
       <c r="O12">
-        <v>0.2514836795252225</v>
+        <v>0.2873415395921367</v>
       </c>
       <c r="P12">
-        <v>-101.9671715035113</v>
+        <v>161.3842118622557</v>
       </c>
     </row>
     <row r="13" spans="1:16">
       <c r="A13">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
         <v>16</v>
@@ -1048,42 +1048,42 @@
         <v>2023</v>
       </c>
       <c r="F13">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="G13">
-        <v>1.2</v>
+        <v>2.7</v>
       </c>
       <c r="H13">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="I13">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="J13">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K13">
-        <v>-38187</v>
+        <v>33093</v>
       </c>
       <c r="L13">
-        <v>25442</v>
+        <v>9747</v>
       </c>
       <c r="M13">
-        <v>-703</v>
+        <v>-756</v>
       </c>
       <c r="N13">
-        <v>-38890</v>
+        <v>32337</v>
       </c>
       <c r="O13">
-        <v>0.3160128920682336</v>
+        <v>0.3424643480045142</v>
       </c>
       <c r="P13">
-        <v>-164.5232253151705</v>
+        <v>136.800913782892</v>
       </c>
     </row>
     <row r="14" spans="1:16">
       <c r="A14">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="B14" t="s">
         <v>16</v>
@@ -1098,87 +1098,2287 @@
         <v>2023</v>
       </c>
       <c r="F14">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G14">
-        <v>0.6000000000000001</v>
+        <v>3.7</v>
       </c>
       <c r="H14">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="K14">
-        <v>-45139</v>
+        <v>32825</v>
       </c>
       <c r="L14">
-        <v>53355</v>
+        <v>5720</v>
       </c>
       <c r="M14">
-        <v>-1081</v>
+        <v>-800</v>
       </c>
       <c r="N14">
-        <v>-46220</v>
+        <v>32025</v>
       </c>
       <c r="O14">
-        <v>0.3617842751382251</v>
+        <v>0.3423076923076923</v>
       </c>
       <c r="P14">
-        <v>-195.5326169726711</v>
+        <v>135.4810051611811</v>
       </c>
     </row>
     <row r="15" spans="1:16">
       <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15">
+        <v>2020</v>
+      </c>
+      <c r="E15">
+        <v>2023</v>
+      </c>
+      <c r="F15">
+        <v>100</v>
+      </c>
+      <c r="G15">
+        <v>1.5</v>
+      </c>
+      <c r="H15">
+        <v>400</v>
+      </c>
+      <c r="I15">
+        <v>500</v>
+      </c>
+      <c r="J15">
+        <v>100</v>
+      </c>
+      <c r="K15">
+        <v>31221</v>
+      </c>
+      <c r="L15">
+        <v>20737</v>
+      </c>
+      <c r="M15">
+        <v>-703</v>
+      </c>
+      <c r="N15">
+        <v>30518</v>
+      </c>
+      <c r="O15">
+        <v>0.331533008631914</v>
+      </c>
+      <c r="P15">
+        <v>129.1056772992639</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16">
+        <v>20</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16">
+        <v>2020</v>
+      </c>
+      <c r="E16">
+        <v>2023</v>
+      </c>
+      <c r="F16">
+        <v>10</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>300</v>
+      </c>
+      <c r="I16">
+        <v>450</v>
+      </c>
+      <c r="J16">
+        <v>100</v>
+      </c>
+      <c r="K16">
+        <v>31415</v>
+      </c>
+      <c r="L16">
+        <v>29386</v>
+      </c>
+      <c r="M16">
+        <v>-1081</v>
+      </c>
+      <c r="N16">
+        <v>30334</v>
+      </c>
+      <c r="O16">
+        <v>0.3146055945007827</v>
+      </c>
+      <c r="P16">
+        <v>128.3272696505626</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17">
+        <v>7</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17">
+        <v>2020</v>
+      </c>
+      <c r="E17">
+        <v>2023</v>
+      </c>
+      <c r="F17">
+        <v>10</v>
+      </c>
+      <c r="G17">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="H17">
+        <v>350</v>
+      </c>
+      <c r="I17">
+        <v>300</v>
+      </c>
+      <c r="J17">
+        <v>100</v>
+      </c>
+      <c r="K17">
+        <v>23864</v>
+      </c>
+      <c r="L17">
+        <v>39378</v>
+      </c>
+      <c r="M17">
+        <v>-1062</v>
+      </c>
+      <c r="N17">
+        <v>22802</v>
+      </c>
+      <c r="O17">
+        <v>0.2941490172177358</v>
+      </c>
+      <c r="P17">
+        <v>96.46332177003131</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18">
+        <v>2020</v>
+      </c>
+      <c r="E18">
+        <v>2023</v>
+      </c>
+      <c r="F18">
+        <v>30</v>
+      </c>
+      <c r="G18">
+        <v>3.4</v>
+      </c>
+      <c r="H18">
+        <v>400</v>
+      </c>
+      <c r="I18">
+        <v>400</v>
+      </c>
+      <c r="J18">
+        <v>150</v>
+      </c>
+      <c r="K18">
+        <v>19830</v>
+      </c>
+      <c r="L18">
+        <v>7209</v>
+      </c>
+      <c r="M18">
+        <v>-800</v>
+      </c>
+      <c r="N18">
+        <v>19030</v>
+      </c>
+      <c r="O18">
+        <v>0.3492856152032182</v>
+      </c>
+      <c r="P18">
+        <v>80.50596497165581</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19">
+        <v>13</v>
+      </c>
+      <c r="B19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19">
+        <v>2020</v>
+      </c>
+      <c r="E19">
+        <v>2023</v>
+      </c>
+      <c r="F19">
+        <v>60</v>
+      </c>
+      <c r="G19">
+        <v>1.7</v>
+      </c>
+      <c r="H19">
+        <v>150</v>
+      </c>
+      <c r="I19">
+        <v>200</v>
+      </c>
+      <c r="J19">
+        <v>150</v>
+      </c>
+      <c r="K19">
+        <v>19657</v>
+      </c>
+      <c r="L19">
+        <v>15732</v>
+      </c>
+      <c r="M19">
+        <v>-756</v>
+      </c>
+      <c r="N19">
+        <v>18901</v>
+      </c>
+      <c r="O19">
+        <v>0.3226544622425629</v>
+      </c>
+      <c r="P19">
+        <v>79.96023352229462</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20">
+        <v>15</v>
+      </c>
+      <c r="B20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20">
+        <v>2020</v>
+      </c>
+      <c r="E20">
+        <v>2023</v>
+      </c>
+      <c r="F20">
+        <v>60</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>150</v>
+      </c>
+      <c r="I20">
+        <v>350</v>
+      </c>
+      <c r="J20">
+        <v>150</v>
+      </c>
+      <c r="K20">
+        <v>14341</v>
+      </c>
+      <c r="L20">
+        <v>22460</v>
+      </c>
+      <c r="M20">
+        <v>-703</v>
+      </c>
+      <c r="N20">
+        <v>13638</v>
+      </c>
+      <c r="O20">
+        <v>0.3024042742653607</v>
+      </c>
+      <c r="P20">
+        <v>57.69523648362805</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21">
+        <v>4</v>
+      </c>
+      <c r="B21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21">
+        <v>2020</v>
+      </c>
+      <c r="E21">
+        <v>2023</v>
+      </c>
+      <c r="F21">
+        <v>50</v>
+      </c>
+      <c r="G21">
+        <v>3.2</v>
+      </c>
+      <c r="H21">
+        <v>250</v>
+      </c>
+      <c r="I21">
+        <v>500</v>
+      </c>
+      <c r="J21">
+        <v>100</v>
+      </c>
+      <c r="K21">
+        <v>13969</v>
+      </c>
+      <c r="L21">
+        <v>8082</v>
+      </c>
+      <c r="M21">
+        <v>-800</v>
+      </c>
+      <c r="N21">
+        <v>13169</v>
+      </c>
+      <c r="O21">
+        <v>0.3599356594902252</v>
+      </c>
+      <c r="P21">
+        <v>55.71114307471021</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22">
         <v>0</v>
       </c>
-      <c r="B15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15">
-        <v>2020</v>
-      </c>
-      <c r="E15">
-        <v>2023</v>
-      </c>
-      <c r="F15">
+      <c r="B22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22">
+        <v>2020</v>
+      </c>
+      <c r="E22">
+        <v>2023</v>
+      </c>
+      <c r="F22">
+        <v>90</v>
+      </c>
+      <c r="G22">
+        <v>2.8</v>
+      </c>
+      <c r="H22">
+        <v>400</v>
+      </c>
+      <c r="I22">
+        <v>250</v>
+      </c>
+      <c r="J22">
+        <v>50</v>
+      </c>
+      <c r="K22">
+        <v>12284</v>
+      </c>
+      <c r="L22">
+        <v>9660</v>
+      </c>
+      <c r="M22">
+        <v>-800</v>
+      </c>
+      <c r="N22">
+        <v>11484</v>
+      </c>
+      <c r="O22">
+        <v>0.3842650103519669</v>
+      </c>
+      <c r="P22">
+        <v>48.58279042220154</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23">
+        <v>2020</v>
+      </c>
+      <c r="E23">
+        <v>2023</v>
+      </c>
+      <c r="F23">
+        <v>80</v>
+      </c>
+      <c r="G23">
+        <v>3</v>
+      </c>
+      <c r="H23">
+        <v>150</v>
+      </c>
+      <c r="I23">
+        <v>150</v>
+      </c>
+      <c r="J23">
+        <v>50</v>
+      </c>
+      <c r="K23">
+        <v>11664</v>
+      </c>
+      <c r="L23">
+        <v>8774</v>
+      </c>
+      <c r="M23">
+        <v>-800</v>
+      </c>
+      <c r="N23">
+        <v>10864</v>
+      </c>
+      <c r="O23">
+        <v>0.3880784134944153</v>
+      </c>
+      <c r="P23">
+        <v>45.95989508418648</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24">
+        <v>0</v>
+      </c>
+      <c r="B24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24">
+        <v>2020</v>
+      </c>
+      <c r="E24">
+        <v>2023</v>
+      </c>
+      <c r="F24">
+        <v>20</v>
+      </c>
+      <c r="G24">
+        <v>3.3</v>
+      </c>
+      <c r="H24">
+        <v>200</v>
+      </c>
+      <c r="I24">
+        <v>250</v>
+      </c>
+      <c r="J24">
+        <v>100</v>
+      </c>
+      <c r="K24">
+        <v>8615</v>
+      </c>
+      <c r="L24">
+        <v>7659</v>
+      </c>
+      <c r="M24">
+        <v>-756</v>
+      </c>
+      <c r="N24">
+        <v>7859</v>
+      </c>
+      <c r="O24">
+        <v>0.3581407494450973</v>
+      </c>
+      <c r="P24">
+        <v>33.24731364751671</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25">
+        <v>6</v>
+      </c>
+      <c r="B25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25">
+        <v>2020</v>
+      </c>
+      <c r="E25">
+        <v>2023</v>
+      </c>
+      <c r="F25">
+        <v>80</v>
+      </c>
+      <c r="G25">
+        <v>1.9</v>
+      </c>
+      <c r="H25">
+        <v>200</v>
+      </c>
+      <c r="I25">
+        <v>400</v>
+      </c>
+      <c r="J25">
+        <v>100</v>
+      </c>
+      <c r="K25">
+        <v>8546</v>
+      </c>
+      <c r="L25">
+        <v>16033</v>
+      </c>
+      <c r="M25">
+        <v>-756</v>
+      </c>
+      <c r="N25">
+        <v>7790</v>
+      </c>
+      <c r="O25">
+        <v>0.3369924530655523</v>
+      </c>
+      <c r="P25">
+        <v>32.95541077925375</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26">
+        <v>17</v>
+      </c>
+      <c r="B26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26">
+        <v>2020</v>
+      </c>
+      <c r="E26">
+        <v>2023</v>
+      </c>
+      <c r="F26">
+        <v>60</v>
+      </c>
+      <c r="G26">
+        <v>2</v>
+      </c>
+      <c r="H26">
+        <v>250</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>7958</v>
+      </c>
+      <c r="L26">
+        <v>15460</v>
+      </c>
+      <c r="M26">
+        <v>-756</v>
+      </c>
+      <c r="N26">
+        <v>7202</v>
+      </c>
+      <c r="O26">
+        <v>0.3711513583441138</v>
+      </c>
+      <c r="P26">
+        <v>30.46789068449107</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="A27">
+        <v>10</v>
+      </c>
+      <c r="B27" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27">
+        <v>2020</v>
+      </c>
+      <c r="E27">
+        <v>2023</v>
+      </c>
+      <c r="F27">
+        <v>20</v>
+      </c>
+      <c r="G27">
+        <v>1.8</v>
+      </c>
+      <c r="H27">
+        <v>150</v>
+      </c>
+      <c r="I27">
+        <v>300</v>
+      </c>
+      <c r="J27">
+        <v>250</v>
+      </c>
+      <c r="K27">
+        <v>8022</v>
+      </c>
+      <c r="L27">
+        <v>11076</v>
+      </c>
+      <c r="M27">
+        <v>-889</v>
+      </c>
+      <c r="N27">
+        <v>7133</v>
+      </c>
+      <c r="O27">
+        <v>0.2902672444925966</v>
+      </c>
+      <c r="P27">
+        <v>30.1759878162281</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28">
+        <v>3</v>
+      </c>
+      <c r="B28" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28">
+        <v>2020</v>
+      </c>
+      <c r="E28">
+        <v>2023</v>
+      </c>
+      <c r="F28">
+        <v>60</v>
+      </c>
+      <c r="G28">
+        <v>0.7</v>
+      </c>
+      <c r="H28">
+        <v>400</v>
+      </c>
+      <c r="I28">
+        <v>400</v>
+      </c>
+      <c r="J28">
+        <v>50</v>
+      </c>
+      <c r="K28">
+        <v>6078</v>
+      </c>
+      <c r="L28">
+        <v>46006</v>
+      </c>
+      <c r="M28">
+        <v>-870</v>
+      </c>
+      <c r="N28">
+        <v>5208</v>
+      </c>
+      <c r="O28">
+        <v>0.3162848324131635</v>
+      </c>
+      <c r="P28">
+        <v>22.03232083932651</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="A29">
+        <v>5</v>
+      </c>
+      <c r="B29" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29">
+        <v>2020</v>
+      </c>
+      <c r="E29">
+        <v>2023</v>
+      </c>
+      <c r="F29">
+        <v>10</v>
+      </c>
+      <c r="G29">
+        <v>2.7</v>
+      </c>
+      <c r="H29">
+        <v>450</v>
+      </c>
+      <c r="I29">
+        <v>500</v>
+      </c>
+      <c r="J29">
+        <v>50</v>
+      </c>
+      <c r="K29">
+        <v>3689</v>
+      </c>
+      <c r="L29">
+        <v>10386</v>
+      </c>
+      <c r="M29">
+        <v>-589</v>
+      </c>
+      <c r="N29">
+        <v>3100</v>
+      </c>
+      <c r="O29">
+        <v>0.3755054881571346</v>
+      </c>
+      <c r="P29">
+        <v>13.1144766900753</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="A30">
+        <v>12</v>
+      </c>
+      <c r="B30" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30">
+        <v>2020</v>
+      </c>
+      <c r="E30">
+        <v>2023</v>
+      </c>
+      <c r="F30">
         <v>70</v>
       </c>
-      <c r="G15">
+      <c r="G30">
+        <v>2.3</v>
+      </c>
+      <c r="H30">
+        <v>250</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>3001</v>
+      </c>
+      <c r="L30">
+        <v>12888</v>
+      </c>
+      <c r="M30">
+        <v>-756</v>
+      </c>
+      <c r="N30">
+        <v>2245</v>
+      </c>
+      <c r="O30">
+        <v>0.3706548727498448</v>
+      </c>
+      <c r="P30">
+        <v>9.497419409425502</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="A31">
+        <v>3</v>
+      </c>
+      <c r="B31" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31">
+        <v>2020</v>
+      </c>
+      <c r="E31">
+        <v>2023</v>
+      </c>
+      <c r="F31">
+        <v>90</v>
+      </c>
+      <c r="G31">
+        <v>1.5</v>
+      </c>
+      <c r="H31">
+        <v>150</v>
+      </c>
+      <c r="I31">
+        <v>300</v>
+      </c>
+      <c r="J31">
+        <v>50</v>
+      </c>
+      <c r="K31">
+        <v>2840</v>
+      </c>
+      <c r="L31">
+        <v>22060</v>
+      </c>
+      <c r="M31">
+        <v>-658</v>
+      </c>
+      <c r="N31">
+        <v>2182</v>
+      </c>
+      <c r="O31">
+        <v>0.349818676337262</v>
+      </c>
+      <c r="P31">
+        <v>9.230899399272358</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="A32">
         <v>1</v>
       </c>
-      <c r="H15">
+      <c r="B32" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32">
+        <v>2020</v>
+      </c>
+      <c r="E32">
+        <v>2023</v>
+      </c>
+      <c r="F32">
+        <v>10</v>
+      </c>
+      <c r="G32">
+        <v>2.7</v>
+      </c>
+      <c r="H32">
+        <v>300</v>
+      </c>
+      <c r="I32">
+        <v>500</v>
+      </c>
+      <c r="J32">
         <v>50</v>
       </c>
-      <c r="I15">
+      <c r="K32">
+        <v>2260</v>
+      </c>
+      <c r="L32">
+        <v>10386</v>
+      </c>
+      <c r="M32">
+        <v>-589</v>
+      </c>
+      <c r="N32">
+        <v>1671</v>
+      </c>
+      <c r="O32">
+        <v>0.3754092046986328</v>
+      </c>
+      <c r="P32">
+        <v>7.069125983585751</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
+      <c r="A33">
+        <v>13</v>
+      </c>
+      <c r="B33" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33">
+        <v>2020</v>
+      </c>
+      <c r="E33">
+        <v>2023</v>
+      </c>
+      <c r="F33">
+        <v>10</v>
+      </c>
+      <c r="G33">
+        <v>0.8</v>
+      </c>
+      <c r="H33">
+        <v>450</v>
+      </c>
+      <c r="I33">
+        <v>450</v>
+      </c>
+      <c r="J33">
+        <v>50</v>
+      </c>
+      <c r="K33">
+        <v>-123</v>
+      </c>
+      <c r="L33">
+        <v>42698</v>
+      </c>
+      <c r="M33">
+        <v>-1081</v>
+      </c>
+      <c r="N33">
+        <v>-1204</v>
+      </c>
+      <c r="O33">
+        <v>0.3174153356129092</v>
+      </c>
+      <c r="P33">
+        <v>-5.093493527371182</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16">
+      <c r="A34">
+        <v>16</v>
+      </c>
+      <c r="B34" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34">
+        <v>2020</v>
+      </c>
+      <c r="E34">
+        <v>2023</v>
+      </c>
+      <c r="F34">
+        <v>60</v>
+      </c>
+      <c r="G34">
+        <v>1.8</v>
+      </c>
+      <c r="H34">
+        <v>100</v>
+      </c>
+      <c r="I34">
+        <v>300</v>
+      </c>
+      <c r="J34">
+        <v>200</v>
+      </c>
+      <c r="K34">
+        <v>-7373</v>
+      </c>
+      <c r="L34">
+        <v>13974</v>
+      </c>
+      <c r="M34">
+        <v>-756</v>
+      </c>
+      <c r="N34">
+        <v>-8129</v>
+      </c>
+      <c r="O34">
+        <v>0.2674252182624875</v>
+      </c>
+      <c r="P34">
+        <v>-34.38954226245875</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16">
+      <c r="A35">
+        <v>10</v>
+      </c>
+      <c r="B35" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35">
+        <v>2020</v>
+      </c>
+      <c r="E35">
+        <v>2023</v>
+      </c>
+      <c r="F35">
+        <v>60</v>
+      </c>
+      <c r="G35">
+        <v>1.3</v>
+      </c>
+      <c r="H35">
+        <v>200</v>
+      </c>
+      <c r="I35">
         <v>0</v>
       </c>
-      <c r="J15">
+      <c r="J35">
         <v>0</v>
       </c>
-      <c r="K15">
+      <c r="K35">
+        <v>-10452</v>
+      </c>
+      <c r="L35">
+        <v>26172</v>
+      </c>
+      <c r="M35">
+        <v>-703</v>
+      </c>
+      <c r="N35">
+        <v>-11155</v>
+      </c>
+      <c r="O35">
+        <v>0.3664603392939019</v>
+      </c>
+      <c r="P35">
+        <v>-47.1909637025129</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16">
+      <c r="A36">
+        <v>4</v>
+      </c>
+      <c r="B36" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36" t="s">
+        <v>17</v>
+      </c>
+      <c r="D36">
+        <v>2020</v>
+      </c>
+      <c r="E36">
+        <v>2023</v>
+      </c>
+      <c r="F36">
+        <v>90</v>
+      </c>
+      <c r="G36">
+        <v>3.8</v>
+      </c>
+      <c r="H36">
+        <v>300</v>
+      </c>
+      <c r="I36">
+        <v>450</v>
+      </c>
+      <c r="J36">
+        <v>400</v>
+      </c>
+      <c r="K36">
+        <v>-10688</v>
+      </c>
+      <c r="L36">
+        <v>4107</v>
+      </c>
+      <c r="M36">
+        <v>-848</v>
+      </c>
+      <c r="N36">
+        <v>-11536</v>
+      </c>
+      <c r="O36">
+        <v>0.3316289262235208</v>
+      </c>
+      <c r="P36">
+        <v>-48.80277519248668</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16">
+      <c r="A37">
+        <v>18</v>
+      </c>
+      <c r="B37" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37">
+        <v>2020</v>
+      </c>
+      <c r="E37">
+        <v>2023</v>
+      </c>
+      <c r="F37">
+        <v>50</v>
+      </c>
+      <c r="G37">
+        <v>1.1</v>
+      </c>
+      <c r="H37">
+        <v>150</v>
+      </c>
+      <c r="I37">
+        <v>500</v>
+      </c>
+      <c r="J37">
+        <v>250</v>
+      </c>
+      <c r="K37">
+        <v>-10946</v>
+      </c>
+      <c r="L37">
+        <v>14455</v>
+      </c>
+      <c r="M37">
+        <v>-778</v>
+      </c>
+      <c r="N37">
+        <v>-11724</v>
+      </c>
+      <c r="O37">
+        <v>0.2691110342442062</v>
+      </c>
+      <c r="P37">
+        <v>-49.59810474659447</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16">
+      <c r="A38">
+        <v>10</v>
+      </c>
+      <c r="B38" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38" t="s">
+        <v>17</v>
+      </c>
+      <c r="D38">
+        <v>2020</v>
+      </c>
+      <c r="E38">
+        <v>2023</v>
+      </c>
+      <c r="F38">
+        <v>30</v>
+      </c>
+      <c r="G38">
+        <v>2.1</v>
+      </c>
+      <c r="H38">
+        <v>150</v>
+      </c>
+      <c r="I38">
+        <v>450</v>
+      </c>
+      <c r="J38">
+        <v>350</v>
+      </c>
+      <c r="K38">
+        <v>-15640</v>
+      </c>
+      <c r="L38">
+        <v>8165</v>
+      </c>
+      <c r="M38">
+        <v>-756</v>
+      </c>
+      <c r="N38">
+        <v>-16396</v>
+      </c>
+      <c r="O38">
+        <v>0.2486221677893448</v>
+      </c>
+      <c r="P38">
+        <v>-69.36289026144344</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16">
+      <c r="A39">
+        <v>12</v>
+      </c>
+      <c r="B39" t="s">
+        <v>16</v>
+      </c>
+      <c r="C39" t="s">
+        <v>17</v>
+      </c>
+      <c r="D39">
+        <v>2020</v>
+      </c>
+      <c r="E39">
+        <v>2023</v>
+      </c>
+      <c r="F39">
+        <v>80</v>
+      </c>
+      <c r="G39">
+        <v>1.4</v>
+      </c>
+      <c r="H39">
+        <v>100</v>
+      </c>
+      <c r="I39">
+        <v>400</v>
+      </c>
+      <c r="J39">
+        <v>100</v>
+      </c>
+      <c r="K39">
+        <v>-18922</v>
+      </c>
+      <c r="L39">
+        <v>22136</v>
+      </c>
+      <c r="M39">
+        <v>-703</v>
+      </c>
+      <c r="N39">
+        <v>-19625</v>
+      </c>
+      <c r="O39">
+        <v>0.3261203469461511</v>
+      </c>
+      <c r="P39">
+        <v>-83.02309840087993</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="B40" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40" t="s">
+        <v>17</v>
+      </c>
+      <c r="D40">
+        <v>2020</v>
+      </c>
+      <c r="E40">
+        <v>2023</v>
+      </c>
+      <c r="F40">
+        <v>50</v>
+      </c>
+      <c r="G40">
+        <v>1.1</v>
+      </c>
+      <c r="H40">
+        <v>450</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>-22116</v>
+      </c>
+      <c r="L40">
+        <v>31562</v>
+      </c>
+      <c r="M40">
+        <v>-644</v>
+      </c>
+      <c r="N40">
+        <v>-22760</v>
+      </c>
+      <c r="O40">
+        <v>0.3624928711741968</v>
+      </c>
+      <c r="P40">
+        <v>-96.28564176326255</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16">
+      <c r="A41">
+        <v>2</v>
+      </c>
+      <c r="B41" t="s">
+        <v>16</v>
+      </c>
+      <c r="C41" t="s">
+        <v>17</v>
+      </c>
+      <c r="D41">
+        <v>2020</v>
+      </c>
+      <c r="E41">
+        <v>2023</v>
+      </c>
+      <c r="F41">
+        <v>50</v>
+      </c>
+      <c r="G41">
+        <v>3.5</v>
+      </c>
+      <c r="H41">
+        <v>100</v>
+      </c>
+      <c r="I41">
+        <v>500</v>
+      </c>
+      <c r="J41">
+        <v>250</v>
+      </c>
+      <c r="K41">
+        <v>-23303</v>
+      </c>
+      <c r="L41">
+        <v>6740</v>
+      </c>
+      <c r="M41">
+        <v>-800</v>
+      </c>
+      <c r="N41">
+        <v>-24103</v>
+      </c>
+      <c r="O41">
+        <v>0.2514836795252225</v>
+      </c>
+      <c r="P41">
+        <v>-101.9671715035113</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16">
+      <c r="A42">
+        <v>2</v>
+      </c>
+      <c r="B42" t="s">
+        <v>16</v>
+      </c>
+      <c r="C42" t="s">
+        <v>17</v>
+      </c>
+      <c r="D42">
+        <v>2020</v>
+      </c>
+      <c r="E42">
+        <v>2023</v>
+      </c>
+      <c r="F42">
+        <v>10</v>
+      </c>
+      <c r="G42">
+        <v>3.100000000000001</v>
+      </c>
+      <c r="H42">
+        <v>50</v>
+      </c>
+      <c r="I42">
+        <v>500</v>
+      </c>
+      <c r="J42">
+        <v>50</v>
+      </c>
+      <c r="K42">
+        <v>-35124</v>
+      </c>
+      <c r="L42">
+        <v>8490</v>
+      </c>
+      <c r="M42">
+        <v>-612</v>
+      </c>
+      <c r="N42">
+        <v>-35736</v>
+      </c>
+      <c r="O42">
+        <v>0.3387514723203769</v>
+      </c>
+      <c r="P42">
+        <v>-151.1803029021068</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16">
+      <c r="A43">
+        <v>0</v>
+      </c>
+      <c r="B43" t="s">
+        <v>16</v>
+      </c>
+      <c r="C43" t="s">
+        <v>17</v>
+      </c>
+      <c r="D43">
+        <v>2020</v>
+      </c>
+      <c r="E43">
+        <v>2023</v>
+      </c>
+      <c r="F43">
+        <v>10</v>
+      </c>
+      <c r="G43">
+        <v>1.2</v>
+      </c>
+      <c r="H43">
+        <v>100</v>
+      </c>
+      <c r="I43">
+        <v>500</v>
+      </c>
+      <c r="J43">
+        <v>100</v>
+      </c>
+      <c r="K43">
+        <v>-38187</v>
+      </c>
+      <c r="L43">
+        <v>25442</v>
+      </c>
+      <c r="M43">
+        <v>-703</v>
+      </c>
+      <c r="N43">
+        <v>-38890</v>
+      </c>
+      <c r="O43">
+        <v>0.3160128920682336</v>
+      </c>
+      <c r="P43">
+        <v>-164.5232253151705</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16">
+      <c r="A44">
+        <v>2</v>
+      </c>
+      <c r="B44" t="s">
+        <v>16</v>
+      </c>
+      <c r="C44" t="s">
+        <v>17</v>
+      </c>
+      <c r="D44">
+        <v>2020</v>
+      </c>
+      <c r="E44">
+        <v>2023</v>
+      </c>
+      <c r="F44">
+        <v>40</v>
+      </c>
+      <c r="G44">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="H44">
+        <v>400</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>-45139</v>
+      </c>
+      <c r="L44">
+        <v>53355</v>
+      </c>
+      <c r="M44">
+        <v>-1081</v>
+      </c>
+      <c r="N44">
+        <v>-46220</v>
+      </c>
+      <c r="O44">
+        <v>0.3617842751382251</v>
+      </c>
+      <c r="P44">
+        <v>-195.5326169726711</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16">
+      <c r="A45">
+        <v>9</v>
+      </c>
+      <c r="B45" t="s">
+        <v>16</v>
+      </c>
+      <c r="C45" t="s">
+        <v>17</v>
+      </c>
+      <c r="D45">
+        <v>2020</v>
+      </c>
+      <c r="E45">
+        <v>2023</v>
+      </c>
+      <c r="F45">
+        <v>20</v>
+      </c>
+      <c r="G45">
+        <v>0.5</v>
+      </c>
+      <c r="H45">
+        <v>350</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>-45971</v>
+      </c>
+      <c r="L45">
+        <v>60752</v>
+      </c>
+      <c r="M45">
+        <v>-1081</v>
+      </c>
+      <c r="N45">
+        <v>-47052</v>
+      </c>
+      <c r="O45">
+        <v>0.3621938372399263</v>
+      </c>
+      <c r="P45">
+        <v>-199.0523732972333</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16">
+      <c r="A46">
+        <v>14</v>
+      </c>
+      <c r="B46" t="s">
+        <v>16</v>
+      </c>
+      <c r="C46" t="s">
+        <v>17</v>
+      </c>
+      <c r="D46">
+        <v>2020</v>
+      </c>
+      <c r="E46">
+        <v>2023</v>
+      </c>
+      <c r="F46">
+        <v>20</v>
+      </c>
+      <c r="G46">
+        <v>0.4</v>
+      </c>
+      <c r="H46">
+        <v>300</v>
+      </c>
+      <c r="I46">
+        <v>450</v>
+      </c>
+      <c r="J46">
+        <v>400</v>
+      </c>
+      <c r="K46">
+        <v>-49115</v>
+      </c>
+      <c r="L46">
+        <v>8451</v>
+      </c>
+      <c r="M46">
+        <v>-1062</v>
+      </c>
+      <c r="N46">
+        <v>-50177</v>
+      </c>
+      <c r="O46">
+        <v>0.2536977872441131</v>
+      </c>
+      <c r="P46">
+        <v>-212.2726118960995</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16">
+      <c r="A47">
+        <v>19</v>
+      </c>
+      <c r="B47" t="s">
+        <v>16</v>
+      </c>
+      <c r="C47" t="s">
+        <v>17</v>
+      </c>
+      <c r="D47">
+        <v>2020</v>
+      </c>
+      <c r="E47">
+        <v>2023</v>
+      </c>
+      <c r="F47">
+        <v>50</v>
+      </c>
+      <c r="G47">
+        <v>3</v>
+      </c>
+      <c r="H47">
+        <v>200</v>
+      </c>
+      <c r="I47">
+        <v>500</v>
+      </c>
+      <c r="J47">
+        <v>450</v>
+      </c>
+      <c r="K47">
+        <v>-50341</v>
+      </c>
+      <c r="L47">
+        <v>5137</v>
+      </c>
+      <c r="M47">
+        <v>-803</v>
+      </c>
+      <c r="N47">
+        <v>-51144</v>
+      </c>
+      <c r="O47">
+        <v>0.2581273116605022</v>
+      </c>
+      <c r="P47">
+        <v>-216.3634825281327</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16">
+      <c r="A48">
+        <v>11</v>
+      </c>
+      <c r="B48" t="s">
+        <v>16</v>
+      </c>
+      <c r="C48" t="s">
+        <v>17</v>
+      </c>
+      <c r="D48">
+        <v>2020</v>
+      </c>
+      <c r="E48">
+        <v>2023</v>
+      </c>
+      <c r="F48">
+        <v>80</v>
+      </c>
+      <c r="G48">
+        <v>0.2</v>
+      </c>
+      <c r="H48">
+        <v>250</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>-58281</v>
+      </c>
+      <c r="L48">
+        <v>85698</v>
+      </c>
+      <c r="M48">
+        <v>-1062</v>
+      </c>
+      <c r="N48">
+        <v>-59343</v>
+      </c>
+      <c r="O48">
+        <v>0.3562276832598193</v>
+      </c>
+      <c r="P48">
+        <v>-251.049158135206</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16">
+      <c r="A49">
+        <v>9</v>
+      </c>
+      <c r="B49" t="s">
+        <v>16</v>
+      </c>
+      <c r="C49" t="s">
+        <v>17</v>
+      </c>
+      <c r="D49">
+        <v>2020</v>
+      </c>
+      <c r="E49">
+        <v>2023</v>
+      </c>
+      <c r="F49">
+        <v>90</v>
+      </c>
+      <c r="G49">
+        <v>2.5</v>
+      </c>
+      <c r="H49">
+        <v>50</v>
+      </c>
+      <c r="I49">
+        <v>250</v>
+      </c>
+      <c r="J49">
+        <v>200</v>
+      </c>
+      <c r="K49">
+        <v>-67743</v>
+      </c>
+      <c r="L49">
+        <v>11137</v>
+      </c>
+      <c r="M49">
+        <v>-756</v>
+      </c>
+      <c r="N49">
+        <v>-68499</v>
+      </c>
+      <c r="O49">
+        <v>0.1811978091047859</v>
+      </c>
+      <c r="P49">
+        <v>-289.7833996107962</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16">
+      <c r="A50">
+        <v>3</v>
+      </c>
+      <c r="B50" t="s">
+        <v>16</v>
+      </c>
+      <c r="C50" t="s">
+        <v>17</v>
+      </c>
+      <c r="D50">
+        <v>2020</v>
+      </c>
+      <c r="E50">
+        <v>2023</v>
+      </c>
+      <c r="F50">
+        <v>20</v>
+      </c>
+      <c r="G50">
+        <v>2.5</v>
+      </c>
+      <c r="H50">
+        <v>50</v>
+      </c>
+      <c r="I50">
+        <v>450</v>
+      </c>
+      <c r="J50">
+        <v>200</v>
+      </c>
+      <c r="K50">
+        <v>-70563</v>
+      </c>
+      <c r="L50">
+        <v>11190</v>
+      </c>
+      <c r="M50">
+        <v>-756</v>
+      </c>
+      <c r="N50">
+        <v>-71319</v>
+      </c>
+      <c r="O50">
+        <v>0.1814119749776586</v>
+      </c>
+      <c r="P50">
+        <v>-301.7133429224131</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16">
+      <c r="A51">
+        <v>5</v>
+      </c>
+      <c r="B51" t="s">
+        <v>16</v>
+      </c>
+      <c r="C51" t="s">
+        <v>17</v>
+      </c>
+      <c r="D51">
+        <v>2020</v>
+      </c>
+      <c r="E51">
+        <v>2023</v>
+      </c>
+      <c r="F51">
+        <v>20</v>
+      </c>
+      <c r="G51">
+        <v>2.4</v>
+      </c>
+      <c r="H51">
+        <v>50</v>
+      </c>
+      <c r="I51">
+        <v>450</v>
+      </c>
+      <c r="J51">
+        <v>100</v>
+      </c>
+      <c r="K51">
+        <v>-84628</v>
+      </c>
+      <c r="L51">
+        <v>12105</v>
+      </c>
+      <c r="M51">
+        <v>-756</v>
+      </c>
+      <c r="N51">
+        <v>-85384</v>
+      </c>
+      <c r="O51">
+        <v>0.2682362660057827</v>
+      </c>
+      <c r="P51">
+        <v>-361.2149928081902</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16">
+      <c r="A52">
+        <v>8</v>
+      </c>
+      <c r="B52" t="s">
+        <v>16</v>
+      </c>
+      <c r="C52" t="s">
+        <v>17</v>
+      </c>
+      <c r="D52">
+        <v>2020</v>
+      </c>
+      <c r="E52">
+        <v>2023</v>
+      </c>
+      <c r="F52">
+        <v>40</v>
+      </c>
+      <c r="G52">
+        <v>1.2</v>
+      </c>
+      <c r="H52">
+        <v>50</v>
+      </c>
+      <c r="I52">
+        <v>500</v>
+      </c>
+      <c r="J52">
+        <v>200</v>
+      </c>
+      <c r="K52">
+        <v>-99123</v>
+      </c>
+      <c r="L52">
+        <v>22925</v>
+      </c>
+      <c r="M52">
+        <v>-703</v>
+      </c>
+      <c r="N52">
+        <v>-99826</v>
+      </c>
+      <c r="O52">
+        <v>0.1770556161395856</v>
+      </c>
+      <c r="P52">
+        <v>-422.3115322785346</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16">
+      <c r="A53">
+        <v>0</v>
+      </c>
+      <c r="B53" t="s">
+        <v>16</v>
+      </c>
+      <c r="C53" t="s">
+        <v>17</v>
+      </c>
+      <c r="D53">
+        <v>2020</v>
+      </c>
+      <c r="E53">
+        <v>2023</v>
+      </c>
+      <c r="F53">
+        <v>70</v>
+      </c>
+      <c r="G53">
+        <v>1</v>
+      </c>
+      <c r="H53">
+        <v>50</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
         <v>-103056</v>
       </c>
-      <c r="L15">
+      <c r="L53">
         <v>34294</v>
       </c>
-      <c r="M15">
+      <c r="M53">
         <v>-656</v>
       </c>
-      <c r="N15">
+      <c r="N53">
         <v>-103712</v>
       </c>
-      <c r="O15">
+      <c r="O53">
         <v>0.354814253222138</v>
       </c>
-      <c r="P15">
+      <c r="P53">
         <v>-438.7511633809967</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16">
+      <c r="A54">
+        <v>11</v>
+      </c>
+      <c r="B54" t="s">
+        <v>16</v>
+      </c>
+      <c r="C54" t="s">
+        <v>17</v>
+      </c>
+      <c r="D54">
+        <v>2020</v>
+      </c>
+      <c r="E54">
+        <v>2023</v>
+      </c>
+      <c r="F54">
+        <v>40</v>
+      </c>
+      <c r="G54">
+        <v>2.1</v>
+      </c>
+      <c r="H54">
+        <v>50</v>
+      </c>
+      <c r="I54">
+        <v>450</v>
+      </c>
+      <c r="J54">
+        <v>100</v>
+      </c>
+      <c r="K54">
+        <v>-106624</v>
+      </c>
+      <c r="L54">
+        <v>14567</v>
+      </c>
+      <c r="M54">
+        <v>-756</v>
+      </c>
+      <c r="N54">
+        <v>-107380</v>
+      </c>
+      <c r="O54">
+        <v>0.2664927576028008</v>
+      </c>
+      <c r="P54">
+        <v>-454.2685506388019</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16">
+      <c r="A55">
+        <v>6</v>
+      </c>
+      <c r="B55" t="s">
+        <v>16</v>
+      </c>
+      <c r="C55" t="s">
+        <v>17</v>
+      </c>
+      <c r="D55">
+        <v>2020</v>
+      </c>
+      <c r="E55">
+        <v>2023</v>
+      </c>
+      <c r="F55">
+        <v>50</v>
+      </c>
+      <c r="G55">
+        <v>1.9</v>
+      </c>
+      <c r="H55">
+        <v>50</v>
+      </c>
+      <c r="I55">
+        <v>500</v>
+      </c>
+      <c r="J55">
+        <v>350</v>
+      </c>
+      <c r="K55">
+        <v>-106693</v>
+      </c>
+      <c r="L55">
+        <v>13378</v>
+      </c>
+      <c r="M55">
+        <v>-756</v>
+      </c>
+      <c r="N55">
+        <v>-107449</v>
+      </c>
+      <c r="O55">
+        <v>0.1234115712363582</v>
+      </c>
+      <c r="P55">
+        <v>-454.5604535070649</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16">
+      <c r="A56">
+        <v>9</v>
+      </c>
+      <c r="B56" t="s">
+        <v>16</v>
+      </c>
+      <c r="C56" t="s">
+        <v>17</v>
+      </c>
+      <c r="D56">
+        <v>2020</v>
+      </c>
+      <c r="E56">
+        <v>2023</v>
+      </c>
+      <c r="F56">
+        <v>100</v>
+      </c>
+      <c r="G56">
+        <v>0.4</v>
+      </c>
+      <c r="H56">
+        <v>200</v>
+      </c>
+      <c r="I56">
+        <v>500</v>
+      </c>
+      <c r="J56">
+        <v>450</v>
+      </c>
+      <c r="K56">
+        <v>-111456</v>
+      </c>
+      <c r="L56">
+        <v>9510</v>
+      </c>
+      <c r="M56">
+        <v>-1062</v>
+      </c>
+      <c r="N56">
+        <v>-112518</v>
+      </c>
+      <c r="O56">
+        <v>0.1991587802313354</v>
+      </c>
+      <c r="P56">
+        <v>-476.0047381335139</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16">
+      <c r="A57">
+        <v>8</v>
+      </c>
+      <c r="B57" t="s">
+        <v>16</v>
+      </c>
+      <c r="C57" t="s">
+        <v>17</v>
+      </c>
+      <c r="D57">
+        <v>2020</v>
+      </c>
+      <c r="E57">
+        <v>2023</v>
+      </c>
+      <c r="F57">
+        <v>50</v>
+      </c>
+      <c r="G57">
+        <v>0.9000000000000001</v>
+      </c>
+      <c r="H57">
+        <v>50</v>
+      </c>
+      <c r="I57">
+        <v>350</v>
+      </c>
+      <c r="J57">
+        <v>50</v>
+      </c>
+      <c r="K57">
+        <v>-130701</v>
+      </c>
+      <c r="L57">
+        <v>37669</v>
+      </c>
+      <c r="M57">
+        <v>-658</v>
+      </c>
+      <c r="N57">
+        <v>-131359</v>
+      </c>
+      <c r="O57">
+        <v>0.312086861875813</v>
+      </c>
+      <c r="P57">
+        <v>-555.7111430747102</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16">
+      <c r="A58">
+        <v>5</v>
+      </c>
+      <c r="B58" t="s">
+        <v>16</v>
+      </c>
+      <c r="C58" t="s">
+        <v>17</v>
+      </c>
+      <c r="D58">
+        <v>2020</v>
+      </c>
+      <c r="E58">
+        <v>2023</v>
+      </c>
+      <c r="F58">
+        <v>100</v>
+      </c>
+      <c r="G58">
+        <v>1.1</v>
+      </c>
+      <c r="H58">
+        <v>50</v>
+      </c>
+      <c r="I58">
+        <v>350</v>
+      </c>
+      <c r="J58">
+        <v>100</v>
+      </c>
+      <c r="K58">
+        <v>-166617</v>
+      </c>
+      <c r="L58">
+        <v>29087</v>
+      </c>
+      <c r="M58">
+        <v>-703</v>
+      </c>
+      <c r="N58">
+        <v>-167320</v>
+      </c>
+      <c r="O58">
+        <v>0.258878536803383</v>
+      </c>
+      <c r="P58">
+        <v>-707.8433031559354</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16">
+      <c r="A59">
+        <v>3</v>
+      </c>
+      <c r="B59" t="s">
+        <v>16</v>
+      </c>
+      <c r="C59" t="s">
+        <v>17</v>
+      </c>
+      <c r="D59">
+        <v>2020</v>
+      </c>
+      <c r="E59">
+        <v>2023</v>
+      </c>
+      <c r="F59">
+        <v>20</v>
+      </c>
+      <c r="G59">
+        <v>1</v>
+      </c>
+      <c r="H59">
+        <v>50</v>
+      </c>
+      <c r="I59">
+        <v>150</v>
+      </c>
+      <c r="J59">
+        <v>100</v>
+      </c>
+      <c r="K59">
+        <v>-189857</v>
+      </c>
+      <c r="L59">
+        <v>32030</v>
+      </c>
+      <c r="M59">
+        <v>-703</v>
+      </c>
+      <c r="N59">
+        <v>-190560</v>
+      </c>
+      <c r="O59">
+        <v>0.2517015298157977</v>
+      </c>
+      <c r="P59">
+        <v>-806.1595735679838</v>
       </c>
     </row>
   </sheetData>
